--- a/业务线技术支持登记表格式-7月.xlsx
+++ b/业务线技术支持登记表格式-7月.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="487">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -1774,6 +1774,13 @@
   </si>
   <si>
     <t>https://ifengxiong.top/al/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛冈东华商贸有限公司</t>
+  </si>
+  <si>
+    <t>https://ifengxiong.top/dhsm/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2298,7 +2305,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2310,7 +2317,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2623,10 +2630,10 @@
   <dimension ref="A1:T323"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F242" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F245" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I244" sqref="I244"/>
+      <selection pane="bottomRight" activeCell="I254" sqref="I254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11264,16 +11271,36 @@
       <c r="B248" s="35">
         <v>25</v>
       </c>
-      <c r="C248" s="36"/>
-      <c r="D248" s="37"/>
-      <c r="E248" s="37"/>
-      <c r="F248" s="35"/>
-      <c r="G248" s="35"/>
-      <c r="H248" s="35"/>
-      <c r="I248" s="37"/>
-      <c r="J248" s="35"/>
-      <c r="K248" s="29"/>
-      <c r="L248" s="35"/>
+      <c r="C248" s="36">
+        <v>43678</v>
+      </c>
+      <c r="D248" t="s">
+        <v>485</v>
+      </c>
+      <c r="E248" t="s">
+        <v>485</v>
+      </c>
+      <c r="F248" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G248" s="10">
+        <v>1</v>
+      </c>
+      <c r="H248" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I248" t="s">
+        <v>24</v>
+      </c>
+      <c r="J248" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K248" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="L248" s="35" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="249" spans="2:12" s="34" customFormat="1" ht="21.75" customHeight="1">
       <c r="B249" s="35">
@@ -12363,7 +12390,7 @@
       <c r="F321" s="12"/>
       <c r="G321" s="12">
         <f>SUM(G3:G320)</f>
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H321" s="12"/>
       <c r="I321" s="12"/>
@@ -12604,9 +12631,10 @@
     <hyperlink ref="K245" r:id="rId197"/>
     <hyperlink ref="K246" r:id="rId198"/>
     <hyperlink ref="K247" r:id="rId199"/>
+    <hyperlink ref="K248" r:id="rId200"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId200"/>
-  <drawing r:id="rId201"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId201"/>
+  <drawing r:id="rId202"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-7月.xlsx
+++ b/业务线技术支持登记表格式-7月.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="494">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -1702,10 +1702,6 @@
     <t>中山市爱菈美肌美容有限公司</t>
   </si>
   <si>
-    <t>https://ifengxiong.top/mkswkj/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>https://ifengxiong.top/almj/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1758,29 +1754,60 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>珠海芯冉化妆品有限公司</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ifengxiong.top/xr/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>安利（中国）日用品有限公司</t>
+  </si>
+  <si>
+    <t>https://ifengxiong.top/al/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛冈东华商贸有限公司</t>
+  </si>
+  <si>
+    <t>https://ifengxiong.top/dhsm/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅游</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>https://iqudou.top/cdma/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>珠海芯冉化妆品有限公司</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ifengxiong.top/xr/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>安利（中国）日用品有限公司</t>
-  </si>
-  <si>
-    <t>https://ifengxiong.top/al/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛冈东华商贸有限公司</t>
+    <t>https://iqudou.top/iqy/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>https://ifengxiong.top/dhsm/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ifengxiong.top/lzt2/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅州市梵酷商贸有限公司</t>
+  </si>
+  <si>
+    <t>祛斑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ifengxiong.top/mkswkj/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://iquban.cn/fksm/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2305,7 +2332,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2317,7 +2344,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2633,7 +2660,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="F245" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I254" sqref="I254"/>
+      <selection pane="bottomRight" activeCell="K252" sqref="K252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -10876,7 +10903,7 @@
         <v>29</v>
       </c>
       <c r="K236" s="38" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="L236" s="35" t="s">
         <v>16</v>
@@ -10946,7 +10973,7 @@
         <v>31</v>
       </c>
       <c r="K238" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L238" s="35" t="s">
         <v>16</v>
@@ -11001,7 +11028,7 @@
         <v>96</v>
       </c>
       <c r="F240" s="32" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G240" s="10">
         <v>1</v>
@@ -11016,7 +11043,7 @@
         <v>31</v>
       </c>
       <c r="K240" s="24" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L240" s="35" t="s">
         <v>16</v>
@@ -11033,7 +11060,7 @@
         <v>120</v>
       </c>
       <c r="E241" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F241" s="32" t="s">
         <v>462</v>
@@ -11051,7 +11078,7 @@
         <v>29</v>
       </c>
       <c r="K241" s="38" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L241" s="35" t="s">
         <v>16</v>
@@ -11086,7 +11113,7 @@
         <v>29</v>
       </c>
       <c r="K242" s="38" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L242" s="35" t="s">
         <v>16</v>
@@ -11103,10 +11130,10 @@
         <v>110</v>
       </c>
       <c r="E243" t="s">
+        <v>472</v>
+      </c>
+      <c r="F243" s="32" t="s">
         <v>473</v>
-      </c>
-      <c r="F243" s="32" t="s">
-        <v>474</v>
       </c>
       <c r="G243" s="10">
         <v>1</v>
@@ -11121,7 +11148,7 @@
         <v>29</v>
       </c>
       <c r="K243" s="38" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L243" s="35" t="s">
         <v>16</v>
@@ -11141,7 +11168,7 @@
         <v>440</v>
       </c>
       <c r="F244" s="32" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G244" s="10">
         <v>1</v>
@@ -11156,7 +11183,7 @@
         <v>29</v>
       </c>
       <c r="K244" s="39" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L244" s="35" t="s">
         <v>16</v>
@@ -11170,13 +11197,13 @@
         <v>43678</v>
       </c>
       <c r="D245" t="s">
+        <v>477</v>
+      </c>
+      <c r="E245" t="s">
+        <v>477</v>
+      </c>
+      <c r="F245" s="32" t="s">
         <v>478</v>
-      </c>
-      <c r="E245" t="s">
-        <v>478</v>
-      </c>
-      <c r="F245" s="32" t="s">
-        <v>479</v>
       </c>
       <c r="G245" s="10">
         <v>1</v>
@@ -11191,7 +11218,7 @@
         <v>29</v>
       </c>
       <c r="K245" s="38" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="L245" s="35" t="s">
         <v>16</v>
@@ -11208,7 +11235,7 @@
         <v>35</v>
       </c>
       <c r="E246" s="29" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F246" s="32" t="s">
         <v>47</v>
@@ -11226,7 +11253,7 @@
         <v>29</v>
       </c>
       <c r="K246" s="38" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L246" s="35" t="s">
         <v>16</v>
@@ -11237,13 +11264,13 @@
         <v>25</v>
       </c>
       <c r="C247" s="36">
-        <v>43678</v>
+        <v>43679</v>
       </c>
       <c r="D247" s="29" t="s">
         <v>35</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F247" s="32" t="s">
         <v>47</v>
@@ -11261,7 +11288,7 @@
         <v>29</v>
       </c>
       <c r="K247" s="38" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L247" s="35" t="s">
         <v>16</v>
@@ -11272,13 +11299,13 @@
         <v>25</v>
       </c>
       <c r="C248" s="36">
-        <v>43678</v>
+        <v>43679</v>
       </c>
       <c r="D248" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F248" s="32" t="s">
         <v>47</v>
@@ -11296,7 +11323,7 @@
         <v>31</v>
       </c>
       <c r="K248" s="38" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L248" s="35" t="s">
         <v>16</v>
@@ -11306,61 +11333,141 @@
       <c r="B249" s="35">
         <v>25</v>
       </c>
-      <c r="C249" s="36"/>
-      <c r="D249" s="37"/>
-      <c r="E249" s="33"/>
-      <c r="F249" s="32"/>
-      <c r="G249" s="35"/>
-      <c r="H249" s="35"/>
-      <c r="I249" s="33"/>
-      <c r="J249" s="35"/>
-      <c r="K249" s="29"/>
-      <c r="L249" s="35"/>
+      <c r="C249" s="36">
+        <v>43679</v>
+      </c>
+      <c r="D249" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="E249" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="F249" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G249" s="10">
+        <v>1</v>
+      </c>
+      <c r="H249" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I249" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J249" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K249" s="38" t="s">
+        <v>488</v>
+      </c>
+      <c r="L249" s="35" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="250" spans="2:12" s="34" customFormat="1" ht="21.75" customHeight="1">
       <c r="B250" s="35">
         <v>25</v>
       </c>
-      <c r="C250" s="36"/>
-      <c r="D250" s="33"/>
-      <c r="E250" s="33"/>
-      <c r="F250" s="32"/>
-      <c r="G250" s="35"/>
-      <c r="H250" s="35"/>
-      <c r="I250" s="33"/>
-      <c r="J250" s="35"/>
-      <c r="K250" s="29"/>
-      <c r="L250" s="35"/>
-    </row>
-    <row r="251" spans="2:12" s="34" customFormat="1" ht="66.75" customHeight="1">
+      <c r="C250" s="36">
+        <v>43679</v>
+      </c>
+      <c r="D250" t="s">
+        <v>352</v>
+      </c>
+      <c r="E250" t="s">
+        <v>352</v>
+      </c>
+      <c r="F250" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="G250" s="10">
+        <v>1</v>
+      </c>
+      <c r="H250" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I250" t="s">
+        <v>28</v>
+      </c>
+      <c r="J250" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K250" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="L250" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="2:12" s="34" customFormat="1" ht="21.75" customHeight="1">
       <c r="B251" s="35">
-        <v>27</v>
-      </c>
-      <c r="C251" s="36"/>
-      <c r="D251" s="37"/>
-      <c r="E251" s="37"/>
-      <c r="F251" s="35"/>
-      <c r="G251" s="35"/>
-      <c r="H251" s="35"/>
-      <c r="I251" s="37"/>
-      <c r="J251" s="35"/>
-      <c r="K251" s="24"/>
-      <c r="L251" s="35"/>
+        <v>25</v>
+      </c>
+      <c r="C251" s="36">
+        <v>43679</v>
+      </c>
+      <c r="D251" t="s">
+        <v>35</v>
+      </c>
+      <c r="E251" t="s">
+        <v>150</v>
+      </c>
+      <c r="F251" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G251" s="10">
+        <v>1</v>
+      </c>
+      <c r="H251" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I251" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J251" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K251" s="38" t="s">
+        <v>489</v>
+      </c>
+      <c r="L251" s="35" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="252" spans="2:12" s="34" customFormat="1" ht="21.75" customHeight="1">
       <c r="B252" s="35">
-        <v>23</v>
-      </c>
-      <c r="C252" s="36"/>
-      <c r="D252" s="37"/>
-      <c r="E252" s="37"/>
-      <c r="F252" s="35"/>
-      <c r="G252" s="35"/>
-      <c r="H252" s="35"/>
-      <c r="I252" s="37"/>
-      <c r="J252" s="35"/>
-      <c r="K252" s="29"/>
-      <c r="L252" s="35"/>
+        <v>25</v>
+      </c>
+      <c r="C252" s="36">
+        <v>43679</v>
+      </c>
+      <c r="D252" t="s">
+        <v>110</v>
+      </c>
+      <c r="E252" t="s">
+        <v>490</v>
+      </c>
+      <c r="F252" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="G252" s="10">
+        <v>1</v>
+      </c>
+      <c r="H252" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I252" t="s">
+        <v>82</v>
+      </c>
+      <c r="J252" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K252" s="38" t="s">
+        <v>493</v>
+      </c>
+      <c r="L252" s="35" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="253" spans="2:12" s="34" customFormat="1" ht="21.75" customHeight="1">
       <c r="B253" s="35">
@@ -12390,7 +12497,7 @@
       <c r="F321" s="12"/>
       <c r="G321" s="12">
         <f>SUM(G3:G320)</f>
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H321" s="12"/>
       <c r="I321" s="12"/>
@@ -12632,9 +12739,13 @@
     <hyperlink ref="K246" r:id="rId198"/>
     <hyperlink ref="K247" r:id="rId199"/>
     <hyperlink ref="K248" r:id="rId200"/>
+    <hyperlink ref="K249" r:id="rId201"/>
+    <hyperlink ref="K250" r:id="rId202"/>
+    <hyperlink ref="K251" r:id="rId203"/>
+    <hyperlink ref="K252" r:id="rId204"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId201"/>
-  <drawing r:id="rId202"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId205"/>
+  <drawing r:id="rId206"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-7月.xlsx
+++ b/业务线技术支持登记表格式-7月.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="497">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -1784,30 +1784,41 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>https://ifengxiong.top/dhsm/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ifengxiong.top/lzt2/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅州市梵酷商贸有限公司</t>
+  </si>
+  <si>
+    <t>祛斑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ifengxiong.top/mkswkj/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://iquban.cn/fksm/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州优品护肤品有限公司</t>
+  </si>
+  <si>
+    <t>减肥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>https://iqudou.top/iqy/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>https://ifengxiong.top/dhsm/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ifengxiong.top/lzt2/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅州市梵酷商贸有限公司</t>
-  </si>
-  <si>
-    <t>祛斑</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ifengxiong.top/mkswkj/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://iquban.cn/fksm/</t>
+    <t>https://iqudou.top/yp/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2332,7 +2343,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2355,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2660,7 +2671,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="F245" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K252" sqref="K252"/>
+      <selection pane="bottomRight" activeCell="H257" sqref="H257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -10903,7 +10914,7 @@
         <v>29</v>
       </c>
       <c r="K236" s="38" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L236" s="35" t="s">
         <v>16</v>
@@ -11049,7 +11060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="2:12" s="34" customFormat="1" ht="21.75" customHeight="1">
+    <row r="241" spans="1:12" s="34" customFormat="1" ht="21.75" customHeight="1">
       <c r="B241" s="35">
         <v>25</v>
       </c>
@@ -11084,7 +11095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="2:12" s="34" customFormat="1" ht="21.75" customHeight="1">
+    <row r="242" spans="1:12" s="34" customFormat="1" ht="21.75" customHeight="1">
       <c r="B242" s="35">
         <v>25</v>
       </c>
@@ -11119,7 +11130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="2:12" s="34" customFormat="1" ht="21.75" customHeight="1">
+    <row r="243" spans="1:12" s="34" customFormat="1" ht="21.75" customHeight="1">
       <c r="B243" s="35">
         <v>25</v>
       </c>
@@ -11154,7 +11165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="244" spans="2:12" s="34" customFormat="1" ht="111" customHeight="1">
+    <row r="244" spans="1:12" s="34" customFormat="1" ht="111" customHeight="1">
       <c r="B244" s="35">
         <v>25</v>
       </c>
@@ -11189,7 +11200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="2:12" s="34" customFormat="1" ht="21.75" customHeight="1">
+    <row r="245" spans="1:12" s="34" customFormat="1" ht="21.75" customHeight="1">
       <c r="B245" s="35">
         <v>25</v>
       </c>
@@ -11224,7 +11235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="2:12" s="34" customFormat="1" ht="21.75" customHeight="1">
+    <row r="246" spans="1:12" s="34" customFormat="1" ht="21.75" customHeight="1">
       <c r="B246" s="35">
         <v>25</v>
       </c>
@@ -11259,7 +11270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="2:12" s="34" customFormat="1" ht="21.75" customHeight="1">
+    <row r="247" spans="1:12" s="34" customFormat="1" ht="21.75" customHeight="1">
       <c r="B247" s="35">
         <v>25</v>
       </c>
@@ -11294,7 +11305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="248" spans="2:12" s="34" customFormat="1" ht="21.75" customHeight="1">
+    <row r="248" spans="1:12" s="34" customFormat="1" ht="21.75" customHeight="1">
       <c r="B248" s="35">
         <v>25</v>
       </c>
@@ -11329,7 +11340,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="2:12" s="34" customFormat="1" ht="21.75" customHeight="1">
+    <row r="249" spans="1:12" s="34" customFormat="1" ht="21.75" customHeight="1">
       <c r="B249" s="35">
         <v>25</v>
       </c>
@@ -11358,13 +11369,13 @@
         <v>31</v>
       </c>
       <c r="K249" s="38" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L249" s="35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="2:12" s="34" customFormat="1" ht="21.75" customHeight="1">
+    <row r="250" spans="1:12" s="34" customFormat="1" ht="21.75" customHeight="1">
       <c r="B250" s="35">
         <v>25</v>
       </c>
@@ -11393,13 +11404,13 @@
         <v>29</v>
       </c>
       <c r="K250" s="38" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="L250" s="35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="251" spans="2:12" s="34" customFormat="1" ht="21.75" customHeight="1">
+    <row r="251" spans="1:12" s="34" customFormat="1" ht="21.75" customHeight="1">
       <c r="B251" s="35">
         <v>25</v>
       </c>
@@ -11428,13 +11439,13 @@
         <v>29</v>
       </c>
       <c r="K251" s="38" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L251" s="35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="2:12" s="34" customFormat="1" ht="21.75" customHeight="1">
+    <row r="252" spans="1:12" s="34" customFormat="1" ht="21.75" customHeight="1">
       <c r="B252" s="35">
         <v>25</v>
       </c>
@@ -11445,10 +11456,10 @@
         <v>110</v>
       </c>
       <c r="E252" t="s">
+        <v>489</v>
+      </c>
+      <c r="F252" s="32" t="s">
         <v>490</v>
-      </c>
-      <c r="F252" s="32" t="s">
-        <v>491</v>
       </c>
       <c r="G252" s="10">
         <v>1</v>
@@ -11463,28 +11474,51 @@
         <v>29</v>
       </c>
       <c r="K252" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="L252" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" s="34" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A253" t="s">
+        <v>129</v>
+      </c>
+      <c r="B253" s="35">
+        <v>25</v>
+      </c>
+      <c r="C253" s="36">
+        <v>43679</v>
+      </c>
+      <c r="D253" t="s">
+        <v>129</v>
+      </c>
+      <c r="E253" t="s">
         <v>493</v>
       </c>
-      <c r="L252" s="35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="253" spans="2:12" s="34" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B253" s="35">
-        <v>23</v>
-      </c>
-      <c r="C253" s="36"/>
-      <c r="D253" s="33"/>
-      <c r="E253" s="33"/>
-      <c r="F253" s="35"/>
-      <c r="G253" s="35"/>
-      <c r="H253" s="35"/>
-      <c r="I253" s="37"/>
-      <c r="J253" s="35"/>
-      <c r="K253" s="29"/>
-      <c r="L253" s="35"/>
-    </row>
-    <row r="254" spans="2:12" s="34" customFormat="1" ht="21.75" customHeight="1">
+      <c r="F253" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="G253" s="10">
+        <v>1</v>
+      </c>
+      <c r="H253" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I253" t="s">
+        <v>54</v>
+      </c>
+      <c r="J253" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K253" s="38" t="s">
+        <v>496</v>
+      </c>
+      <c r="L253" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" s="34" customFormat="1" ht="21.75" customHeight="1">
       <c r="B254" s="35">
         <v>25</v>
       </c>
@@ -11499,7 +11533,7 @@
       <c r="K254" s="29"/>
       <c r="L254" s="35"/>
     </row>
-    <row r="255" spans="2:12" s="34" customFormat="1" ht="21.75" customHeight="1">
+    <row r="255" spans="1:12" s="34" customFormat="1" ht="21.75" customHeight="1">
       <c r="B255" s="35">
         <v>25</v>
       </c>
@@ -11514,7 +11548,7 @@
       <c r="K255" s="29"/>
       <c r="L255" s="35"/>
     </row>
-    <row r="256" spans="2:12" s="34" customFormat="1" ht="21.75" customHeight="1">
+    <row r="256" spans="1:12" s="34" customFormat="1" ht="21.75" customHeight="1">
       <c r="B256" s="35">
         <v>25</v>
       </c>
@@ -12497,7 +12531,7 @@
       <c r="F321" s="12"/>
       <c r="G321" s="12">
         <f>SUM(G3:G320)</f>
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H321" s="12"/>
       <c r="I321" s="12"/>
@@ -12743,9 +12777,10 @@
     <hyperlink ref="K250" r:id="rId202"/>
     <hyperlink ref="K251" r:id="rId203"/>
     <hyperlink ref="K252" r:id="rId204"/>
+    <hyperlink ref="K253" r:id="rId205"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId205"/>
-  <drawing r:id="rId206"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId206"/>
+  <drawing r:id="rId207"/>
 </worksheet>
 </file>